--- a/biology/Zoologie/Aplocheilus/Aplocheilus.xlsx
+++ b/biology/Zoologie/Aplocheilus/Aplocheilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aplocheilus regroupe plusieurs espèces de poissons asiatiques de la famille des Aplocheilidae. Ce sont des poissons d'eau douce mais certaines espèces acceptent l'eau saumâtre. A. dayi et A. werneri sont endémiques du Sri Lanka. L'ancienne orthographe de ce genre était Haplochilus, non valide aujourd'hui.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de poissons de petite taille comprise entre 50 et 100 mm, de forme allongée et présentant généralement des nageoires dorsales et anales positionnées très en arrière du corps.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Fishbase 7 espèces (05/2015)[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fishbase 7 espèces (05/2015):
 Aplocheilus blockii - (Arnold, 1911) - Inde, Pakistan et Sri Lanka
 Aplocheilus dayi - (Steindachner, 1892) - Panchax vert - Endémique du Sri Lanka
 Aplocheilus kirchmayeri - Berkenkamp et Etzel, 1986 - Inde
